--- a/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05E7640-89AC-4DD6-B7A0-B2B6D41115D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75251A85-8637-430B-9FAA-3534A1C5DAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FDB43A1-18D8-499C-B23C-ED76ABA85B69}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2CC9FCC-A511-4D9F-BF08-6269462CDD50}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="207">
   <si>
     <t>Hogares con temperatura insuficiente en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -293,361 +293,373 @@
     <t>34,92%</t>
   </si>
   <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
   </si>
   <si>
     <t>59,91%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
   </si>
   <si>
     <t>36,6%</t>
   </si>
   <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
   </si>
   <si>
     <t>38,7%</t>
   </si>
   <si>
-    <t>34,73%</t>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>40,9%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>58,3%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
   </si>
   <si>
     <t>42,48%</t>
   </si>
   <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
   </si>
   <si>
     <t>41,15%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
   </si>
   <si>
     <t>58,85%</t>
   </si>
   <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5B7AB3-539B-4FAD-A04C-E94B36E8CA40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152F533C-3B10-4CA8-9285-D884D172ACB3}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2278,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE9AC104-F035-4C18-9A99-07A48B783511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBCA4F9-5DF4-4D9F-A638-52800D1F911A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3497,7 +3509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83FCFC48-5ED4-45B5-B5FE-E14E46FBD428}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8862EB8-140C-4B3E-9CEA-96303C1D269C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4164,7 +4176,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -4215,7 +4227,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4716,7 +4728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F473015-05CD-4154-B54C-7ED5A59C753A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECDC6F0-A59F-4A2D-B380-7AECD104A159}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,13 +5332,13 @@
         <v>317121</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>716</v>
@@ -5335,13 +5347,13 @@
         <v>576398</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5356,13 +5368,13 @@
         <v>464714</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>670</v>
@@ -5371,13 +5383,13 @@
         <v>429420</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -5386,13 +5398,13 @@
         <v>894133</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5472,13 @@
         <v>229998</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H16" s="7">
         <v>394</v>
@@ -5475,13 +5487,13 @@
         <v>250533</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>649</v>
@@ -5490,13 +5502,13 @@
         <v>480531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5523,13 @@
         <v>369082</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>607</v>
@@ -5526,13 +5538,13 @@
         <v>345859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>1014</v>
@@ -5541,13 +5553,13 @@
         <v>714941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,16 +5624,16 @@
         <v>420</v>
       </c>
       <c r="D19" s="7">
-        <v>291976</v>
+        <v>291977</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>630</v>
@@ -5630,13 +5642,13 @@
         <v>366685</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M19" s="7">
         <v>1050</v>
@@ -5648,10 +5660,10 @@
         <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5678,13 @@
         <v>405778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>1078</v>
@@ -5681,13 +5693,13 @@
         <v>659952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>1686</v>
@@ -5699,10 +5711,10 @@
         <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,7 +5726,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5770,13 +5782,13 @@
         <v>1304410</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H22" s="7">
         <v>2068</v>
@@ -5785,13 +5797,13 @@
         <v>1509097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M22" s="7">
         <v>3389</v>
@@ -5800,13 +5812,13 @@
         <v>2813507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5833,13 @@
         <v>2078530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H23" s="7">
         <v>3295</v>
@@ -5836,13 +5848,13 @@
         <v>2324154</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M23" s="7">
         <v>5346</v>
@@ -5851,13 +5863,13 @@
         <v>4402684</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75251A85-8637-430B-9FAA-3534A1C5DAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02ABC640-1467-4BD5-AEDF-26FFAB55A300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C2CC9FCC-A511-4D9F-BF08-6269462CDD50}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{953B5620-8289-44BC-9D31-A4017BE2B471}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -260,7 +260,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares con temperatura insuficiente en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -1071,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{152F533C-3B10-4CA8-9285-D884D172ACB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0485F431-4B3F-4158-B486-95E18AE28446}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2173,7 +2173,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2203,7 +2203,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2224,7 +2224,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2254,7 +2254,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2290,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBCA4F9-5DF4-4D9F-A638-52800D1F911A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BE3A3A-8B76-4886-AD9B-D5810EE9BC8B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3509,7 +3509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8862EB8-140C-4B3E-9CEA-96303C1D269C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77DD23E-5F4D-4A94-A028-1003507191B4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4176,7 +4176,7 @@
         <v>1184</v>
       </c>
       <c r="N14" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -4227,7 +4227,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4728,7 +4728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECDC6F0-A59F-4A2D-B380-7AECD104A159}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C79E28-8031-463B-9167-6F66EB3EEF8D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02ABC640-1467-4BD5-AEDF-26FFAB55A300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B556FE-E13F-4564-AF67-9FA466874C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{953B5620-8289-44BC-9D31-A4017BE2B471}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99099ED0-F63E-4FE5-A08B-831E0D883950}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="207">
-  <si>
-    <t>Hogares con temperatura insuficiente en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="203">
+  <si>
+    <t>Población con temperatura insuficiente en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -203,7 +203,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -260,7 +260,7 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -287,379 +287,367 @@
     <t>99,56%</t>
   </si>
   <si>
-    <t>Hogares con temperatura insuficiente en 2023 (Tasa respuesta: 99,91%)</t>
+    <t>Población con temperatura insuficiente en la vivienda en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
   </si>
   <si>
     <t>45,58%</t>
   </si>
   <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>45,47%</t>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
   </si>
   <si>
     <t>54,42%</t>
   </si>
   <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
   </si>
   <si>
     <t>59,91%</t>
   </si>
   <si>
-    <t>54,53%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
   </si>
   <si>
     <t>41,16%</t>
   </si>
   <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
   </si>
   <si>
     <t>36,6%</t>
   </si>
   <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
   </si>
   <si>
     <t>38,7%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
   </si>
   <si>
     <t>58,84%</t>
   </si>
   <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
   </si>
   <si>
     <t>63,4%</t>
   </si>
   <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
   </si>
   <si>
     <t>61,3%</t>
   </si>
   <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
   </si>
   <si>
     <t>38,66%</t>
   </si>
   <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>38,2%</t>
   </si>
   <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
   </si>
   <si>
     <t>61,34%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>62,22%</t>
   </si>
   <si>
-    <t>58,3%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
   </si>
   <si>
     <t>61,8%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>35,81%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
   </si>
   <si>
     <t>39,2%</t>
   </si>
   <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
   </si>
   <si>
     <t>64,19%</t>
   </si>
   <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
   </si>
   <si>
     <t>60,8%</t>
   </si>
   <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
   </si>
   <si>
     <t>38,39%</t>
   </si>
   <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
   </si>
   <si>
     <t>42,01%</t>
   </si>
   <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
   </si>
   <si>
     <t>40,2%</t>
   </si>
   <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>37,64%</t>
   </si>
   <si>
     <t>61,61%</t>
   </si>
   <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>57,99%</t>
   </si>
   <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>59,8%</t>
   </si>
   <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
+    <t>62,36%</t>
   </si>
   <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
   </si>
   <si>
     <t>35,72%</t>
   </si>
   <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>58,15%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
   </si>
   <si>
     <t>64,28%</t>
   </si>
   <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
   </si>
   <si>
     <t>39,37%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
   </si>
   <si>
     <t>61,44%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
   </si>
   <si>
     <t>60,63%</t>
   </si>
   <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>62,93%</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0485F431-4B3F-4158-B486-95E18AE28446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AB0734-EC55-4D90-A90F-12E49D683D0A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2173,7 +2161,7 @@
         <v>3214</v>
       </c>
       <c r="D23" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -2203,7 +2191,7 @@
         <v>6511</v>
       </c>
       <c r="N23" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
@@ -2224,7 +2212,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>19</v>
@@ -2254,7 +2242,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>
@@ -2290,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74BE3A3A-8B76-4886-AD9B-D5810EE9BC8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33B6948-28D5-4EB0-883F-71F9A2563DA9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3509,7 +3497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77DD23E-5F4D-4A94-A028-1003507191B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5D3D94-DC0A-4470-B49B-A33B36B0D375}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4728,7 +4716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C79E28-8031-463B-9167-6F66EB3EEF8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CEC071-C507-436C-BEC0-16AC8D6ED12B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,13 +5320,13 @@
         <v>317121</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>716</v>
@@ -5347,13 +5335,13 @@
         <v>576398</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5368,13 +5356,13 @@
         <v>464714</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>670</v>
@@ -5383,13 +5371,13 @@
         <v>429420</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -5398,13 +5386,13 @@
         <v>894133</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5460,13 @@
         <v>229998</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H16" s="7">
         <v>394</v>
@@ -5487,13 +5475,13 @@
         <v>250533</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>649</v>
@@ -5502,13 +5490,13 @@
         <v>480531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5511,13 @@
         <v>369082</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H17" s="7">
         <v>607</v>
@@ -5538,13 +5526,13 @@
         <v>345859</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M17" s="7">
         <v>1014</v>
@@ -5553,13 +5541,13 @@
         <v>714941</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,16 +5612,16 @@
         <v>420</v>
       </c>
       <c r="D19" s="7">
-        <v>291977</v>
+        <v>291976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H19" s="7">
         <v>630</v>
@@ -5642,13 +5630,13 @@
         <v>366685</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M19" s="7">
         <v>1050</v>
@@ -5660,10 +5648,10 @@
         <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,13 +5666,13 @@
         <v>405778</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
         <v>1078</v>
@@ -5693,13 +5681,13 @@
         <v>659952</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>1686</v>
@@ -5711,10 +5699,10 @@
         <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5726,7 +5714,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5782,13 +5770,13 @@
         <v>1304410</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H22" s="7">
         <v>2068</v>
@@ -5797,13 +5785,13 @@
         <v>1509097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M22" s="7">
         <v>3389</v>
@@ -5812,13 +5800,13 @@
         <v>2813507</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,13 +5821,13 @@
         <v>2078530</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H23" s="7">
         <v>3295</v>
@@ -5848,13 +5836,13 @@
         <v>2324154</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M23" s="7">
         <v>5346</v>
@@ -5863,13 +5851,13 @@
         <v>4402684</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Viv_Temp_insuf-Edad-trans_orig.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11B556FE-E13F-4564-AF67-9FA466874C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95C3B130-EE0A-4B77-9E75-03B6D41F43EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99099ED0-F63E-4FE5-A08B-831E0D883950}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{BBC6C0DF-DF8C-4269-ADAF-D7043B12637F}"/>
   </bookViews>
   <sheets>
-    <sheet name="2007" sheetId="2" r:id="rId1"/>
-    <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2016" sheetId="4" r:id="rId3"/>
-    <sheet name="2023" sheetId="5" r:id="rId4"/>
+    <sheet name="2012" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
+    <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="203">
-  <si>
-    <t>Población con temperatura insuficiente en la vivienda en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="432">
+  <si>
+    <t>Población con temperatura insuficiente, en verano o en invierno, en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,586 +67,1273 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>99,97%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población con temperatura insuficiente en la vivienda en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Población con temperatura insuficiente en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>Población con temperatura insuficiente en la vivienda en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
+    <t>Población con temperatura insuficiente, en verano o en invierno, en la vivienda en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>Población con temperatura insuficiente, en verano o en invierno, en la vivienda en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
 </sst>
 </file>
@@ -1059,8 +1745,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AB0734-EC55-4D90-A90F-12E49D683D0A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDD7679-6767-4D92-B928-9BF1FC8BF351}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1177,10 +1863,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>18498</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1192,85 +1878,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>19778</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>38275</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>499</v>
+        <v>428</v>
       </c>
       <c r="D5" s="7">
-        <v>494064</v>
+        <v>435648</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>489</v>
+        <v>402</v>
       </c>
       <c r="I5" s="7">
-        <v>467489</v>
+        <v>410452</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>988</v>
+        <v>830</v>
       </c>
       <c r="N5" s="7">
-        <v>961553</v>
+        <v>846101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1279,153 +1965,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>499</v>
+        <v>446</v>
       </c>
       <c r="D6" s="7">
-        <v>494064</v>
+        <v>454146</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>489</v>
+        <v>421</v>
       </c>
       <c r="I6" s="7">
-        <v>467489</v>
+        <v>430230</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>988</v>
+        <v>867</v>
       </c>
       <c r="N6" s="7">
-        <v>961553</v>
+        <v>884376</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>36333</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>18543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>54876</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>703</v>
+        <v>636</v>
       </c>
       <c r="D8" s="7">
-        <v>735489</v>
+        <v>650754</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>591</v>
+        <v>553</v>
       </c>
       <c r="I8" s="7">
-        <v>625494</v>
+        <v>591712</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1294</v>
+        <v>1189</v>
       </c>
       <c r="N8" s="7">
-        <v>1360982</v>
+        <v>1242466</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1434,153 +2120,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>703</v>
+        <v>667</v>
       </c>
       <c r="D9" s="7">
-        <v>735489</v>
+        <v>687087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="I9" s="7">
-        <v>625494</v>
+        <v>610255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1294</v>
+        <v>1238</v>
       </c>
       <c r="N9" s="7">
-        <v>1360982</v>
+        <v>1297342</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>28468</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>29618</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>58086</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D11" s="7">
-        <v>638668</v>
+        <v>653395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="I11" s="7">
-        <v>689744</v>
+        <v>681232</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="N11" s="7">
-        <v>1328412</v>
+        <v>1334626</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1589,153 +2275,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>613</v>
+        <v>651</v>
       </c>
       <c r="D12" s="7">
-        <v>638668</v>
+        <v>681863</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="I12" s="7">
-        <v>689744</v>
+        <v>710850</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1271</v>
+        <v>1318</v>
       </c>
       <c r="N12" s="7">
-        <v>1328412</v>
+        <v>1392712</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>23816</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>27483</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>51299</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>484</v>
+        <v>526</v>
       </c>
       <c r="D14" s="7">
-        <v>519147</v>
+        <v>590801</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>502</v>
+        <v>516</v>
       </c>
       <c r="I14" s="7">
-        <v>515642</v>
+        <v>588716</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="M14" s="7">
-        <v>986</v>
+        <v>1042</v>
       </c>
       <c r="N14" s="7">
-        <v>1034789</v>
+        <v>1179517</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,153 +2430,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>484</v>
+        <v>548</v>
       </c>
       <c r="D15" s="7">
-        <v>519147</v>
+        <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="I15" s="7">
-        <v>515642</v>
+        <v>616199</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>986</v>
+        <v>1087</v>
       </c>
       <c r="N15" s="7">
-        <v>1034789</v>
+        <v>1230816</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>20687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>21050</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="7">
         <v>39</v>
       </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>41737</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D17" s="7">
-        <v>386710</v>
+        <v>408742</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="I17" s="7">
-        <v>403986</v>
+        <v>426750</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
-        <v>788</v>
+        <v>760</v>
       </c>
       <c r="N17" s="7">
-        <v>790696</v>
+        <v>835492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1899,153 +2585,153 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D18" s="7">
-        <v>386710</v>
+        <v>429429</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="I18" s="7">
-        <v>403986</v>
+        <v>447800</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>788</v>
+        <v>799</v>
       </c>
       <c r="N18" s="7">
-        <v>790696</v>
+        <v>877229</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>8057</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>16813</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>24870</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>523</v>
+        <v>274</v>
       </c>
       <c r="D20" s="7">
-        <v>502466</v>
+        <v>301729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
-        <v>661</v>
+        <v>327</v>
       </c>
       <c r="I20" s="7">
-        <v>676842</v>
+        <v>337183</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>33</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
-        <v>1184</v>
+        <v>601</v>
       </c>
       <c r="N20" s="7">
-        <v>1179308</v>
+        <v>638912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,153 +2740,153 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>6258</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>26290</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>32547</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3214</v>
+        <v>216</v>
       </c>
       <c r="D23" s="7">
-        <v>3276544</v>
+        <v>243593</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
-        <v>3297</v>
+        <v>326</v>
       </c>
       <c r="I23" s="7">
-        <v>3379198</v>
+        <v>362689</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
-        <v>6511</v>
+        <v>542</v>
       </c>
       <c r="N23" s="7">
-        <v>6655740</v>
+        <v>606283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,63 +2895,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3214</v>
+        <v>222</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>249851</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3297</v>
+        <v>350</v>
       </c>
       <c r="I24" s="7">
-        <v>3379198</v>
+        <v>388979</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6511</v>
+        <v>572</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>638830</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>131</v>
+      </c>
+      <c r="D25" s="7">
+        <v>142116</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>146</v>
+      </c>
+      <c r="I25" s="7">
+        <v>159575</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>277</v>
+      </c>
+      <c r="N25" s="7">
+        <v>301691</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3078</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3284663</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3152</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3398734</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6230</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6683397</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3426779</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3298</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3558309</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6507</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6985088</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2278,8 +3120,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33B6948-28D5-4EB0-883F-71F9A2563DA9}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87D135E-1144-40C8-83FD-7C81B0DB403F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2295,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2396,100 +3238,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>66337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>55</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>55936</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>122273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>446</v>
+        <v>334</v>
       </c>
       <c r="D5" s="7">
-        <v>454146</v>
+        <v>353126</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
-        <v>421</v>
+        <v>348</v>
       </c>
       <c r="I5" s="7">
-        <v>430230</v>
+        <v>339819</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
-        <v>867</v>
+        <v>682</v>
       </c>
       <c r="N5" s="7">
-        <v>884376</v>
+        <v>692945</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,153 +3340,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>446</v>
+        <v>393</v>
       </c>
       <c r="D6" s="7">
-        <v>454146</v>
+        <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="I6" s="7">
-        <v>430230</v>
+        <v>395755</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>867</v>
+        <v>797</v>
       </c>
       <c r="N6" s="7">
-        <v>884376</v>
+        <v>815218</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>97375</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>95094</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>181</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>192469</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>667</v>
+        <v>480</v>
       </c>
       <c r="D8" s="7">
-        <v>687087</v>
+        <v>493121</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
-        <v>571</v>
+        <v>481</v>
       </c>
       <c r="I8" s="7">
-        <v>610255</v>
+        <v>468450</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
-        <v>1238</v>
+        <v>961</v>
       </c>
       <c r="N8" s="7">
-        <v>1297342</v>
+        <v>961571</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,153 +3495,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>667</v>
+        <v>567</v>
       </c>
       <c r="D9" s="7">
-        <v>687087</v>
+        <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="I9" s="7">
-        <v>610255</v>
+        <v>563544</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1238</v>
+        <v>1146</v>
       </c>
       <c r="N9" s="7">
-        <v>1297342</v>
+        <v>1154040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>89371</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>82969</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>200</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>172340</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>651</v>
+        <v>558</v>
       </c>
       <c r="D11" s="7">
-        <v>681863</v>
+        <v>579726</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
-        <v>667</v>
+        <v>582</v>
       </c>
       <c r="I11" s="7">
-        <v>710850</v>
+        <v>578417</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
-        <v>1318</v>
+        <v>1140</v>
       </c>
       <c r="N11" s="7">
-        <v>1392712</v>
+        <v>1158143</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,153 +3650,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D12" s="7">
-        <v>681863</v>
+        <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I12" s="7">
-        <v>710850</v>
+        <v>661386</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1318</v>
+        <v>1303</v>
       </c>
       <c r="N12" s="7">
-        <v>1392712</v>
+        <v>1330483</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>102871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>213</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>85684</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>188555</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>548</v>
+        <v>494</v>
       </c>
       <c r="D14" s="7">
-        <v>614617</v>
+        <v>543177</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="I14" s="7">
-        <v>616199</v>
+        <v>563393</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
-        <v>1087</v>
+        <v>1018</v>
       </c>
       <c r="N14" s="7">
-        <v>1230816</v>
+        <v>1106570</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,153 +3805,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="D15" s="7">
-        <v>614617</v>
+        <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>539</v>
+        <v>602</v>
       </c>
       <c r="I15" s="7">
-        <v>616199</v>
+        <v>649077</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1087</v>
+        <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1230816</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>79491</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>77780</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>233</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>157271</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="D17" s="7">
-        <v>429429</v>
+        <v>398427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
-        <v>406</v>
+        <v>365</v>
       </c>
       <c r="I17" s="7">
-        <v>447800</v>
+        <v>419069</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>243</v>
       </c>
       <c r="M17" s="7">
-        <v>799</v>
+        <v>720</v>
       </c>
       <c r="N17" s="7">
-        <v>877229</v>
+        <v>817496</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,153 +3960,153 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="D18" s="7">
-        <v>429429</v>
+        <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="I18" s="7">
-        <v>447800</v>
+        <v>496849</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>799</v>
+        <v>857</v>
       </c>
       <c r="N18" s="7">
-        <v>877229</v>
+        <v>974767</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>54558</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>13</v>
+        <v>248</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>56341</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>249</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>251</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>110900</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>252</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>46</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>504</v>
+        <v>271</v>
       </c>
       <c r="D20" s="7">
-        <v>559637</v>
+        <v>279772</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
-        <v>694</v>
+        <v>299</v>
       </c>
       <c r="I20" s="7">
-        <v>742975</v>
+        <v>321421</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>257</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>72</v>
+        <v>258</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>259</v>
       </c>
       <c r="M20" s="7">
-        <v>1198</v>
+        <v>570</v>
       </c>
       <c r="N20" s="7">
-        <v>1302612</v>
+        <v>601192</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3273,153 +4115,153 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>43568</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>60989</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>104557</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3209</v>
+        <v>252</v>
       </c>
       <c r="D23" s="7">
-        <v>3426779</v>
+        <v>213430</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>272</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>273</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>274</v>
       </c>
       <c r="H23" s="7">
-        <v>3298</v>
+        <v>253</v>
       </c>
       <c r="I23" s="7">
-        <v>3558309</v>
+        <v>339180</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>17</v>
+        <v>275</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>277</v>
       </c>
       <c r="M23" s="7">
-        <v>6507</v>
+        <v>505</v>
       </c>
       <c r="N23" s="7">
-        <v>6985088</v>
+        <v>552610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>279</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,63 +4270,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3209</v>
+        <v>302</v>
       </c>
       <c r="D24" s="7">
-        <v>3426779</v>
+        <v>256998</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3298</v>
+        <v>301</v>
       </c>
       <c r="I24" s="7">
-        <v>3558309</v>
+        <v>400169</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6507</v>
+        <v>603</v>
       </c>
       <c r="N24" s="7">
-        <v>6985088</v>
+        <v>657167</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>487</v>
+      </c>
+      <c r="D25" s="7">
+        <v>533571</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="H25" s="7">
+        <v>486</v>
+      </c>
+      <c r="I25" s="7">
+        <v>514794</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="M25" s="7">
+        <v>973</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1048365</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2744</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2860779</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2852</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3029748</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5596</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5890527</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3231</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>3338</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3544542</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6569</v>
+      </c>
+      <c r="N27" s="7">
+        <v>6938892</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3497,8 +4495,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5D3D94-DC0A-4470-B49B-A33B36B0D375}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6EB191-1CE7-4740-BA90-51973DC57520}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3514,7 +4512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3615,100 +4613,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>45973</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>300</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>25421</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>69</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>71394</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>304</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>305</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>40</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>393</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>419463</v>
+        <v>354014</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>307</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
-        <v>404</v>
+        <v>191</v>
       </c>
       <c r="I5" s="7">
-        <v>395755</v>
+        <v>287779</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
-        <v>797</v>
+        <v>345</v>
       </c>
       <c r="N5" s="7">
-        <v>815218</v>
+        <v>641793</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>43</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,153 +4715,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>393</v>
+        <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>419463</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>404</v>
+        <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>395755</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>797</v>
+        <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>815218</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>53846</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>316</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>118963</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>319</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>172808</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>12</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>567</v>
+        <v>263</v>
       </c>
       <c r="D8" s="7">
-        <v>590496</v>
+        <v>369701</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>62</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
-        <v>579</v>
+        <v>402</v>
       </c>
       <c r="I8" s="7">
-        <v>563544</v>
+        <v>393130</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
-        <v>1146</v>
+        <v>665</v>
       </c>
       <c r="N8" s="7">
-        <v>1154040</v>
+        <v>762832</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>77</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>19</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,153 +4870,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>567</v>
+        <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>590496</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>579</v>
+        <v>461</v>
       </c>
       <c r="I9" s="7">
-        <v>563544</v>
+        <v>512093</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>763</v>
       </c>
       <c r="N9" s="7">
-        <v>1154040</v>
+        <v>935640</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>68115</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>12</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>57068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>338</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>125183</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>339</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>638</v>
+        <v>471</v>
       </c>
       <c r="D11" s="7">
-        <v>669097</v>
+        <v>468223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
-        <v>665</v>
+        <v>752</v>
       </c>
       <c r="I11" s="7">
-        <v>661386</v>
+        <v>534934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>33</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
-        <v>1303</v>
+        <v>1223</v>
       </c>
       <c r="N11" s="7">
-        <v>1330483</v>
+        <v>1003157</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,153 +5025,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>638</v>
+        <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>669097</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>665</v>
+        <v>848</v>
       </c>
       <c r="I12" s="7">
-        <v>661386</v>
+        <v>592002</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1303</v>
+        <v>1394</v>
       </c>
       <c r="N12" s="7">
-        <v>1330483</v>
+        <v>1128340</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>72234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>350</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>12</v>
+        <v>351</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>156</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>88810</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>353</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>354</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>24</v>
+        <v>355</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>161044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>46</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="D14" s="7">
-        <v>646048</v>
+        <v>815552</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>360</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>361</v>
       </c>
       <c r="H14" s="7">
-        <v>602</v>
+        <v>985</v>
       </c>
       <c r="I14" s="7">
-        <v>649077</v>
+        <v>624071</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>27</v>
+        <v>363</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>364</v>
       </c>
       <c r="M14" s="7">
-        <v>1184</v>
+        <v>1570</v>
       </c>
       <c r="N14" s="7">
-        <v>1295125</v>
+        <v>1439623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>17</v>
+        <v>365</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>366</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>19</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,153 +5180,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>646048</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>602</v>
+        <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>649077</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1184</v>
+        <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>55352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>56</v>
+        <v>370</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>60557</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>371</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>372</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>115909</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>374</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>375</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>424</v>
+        <v>596</v>
       </c>
       <c r="D17" s="7">
-        <v>477918</v>
+        <v>505882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>377</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
-        <v>433</v>
+        <v>887</v>
       </c>
       <c r="I17" s="7">
-        <v>496849</v>
+        <v>487348</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>381</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>382</v>
       </c>
       <c r="M17" s="7">
-        <v>857</v>
+        <v>1483</v>
       </c>
       <c r="N17" s="7">
-        <v>974767</v>
+        <v>993230</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,153 +5335,153 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>424</v>
+        <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>477918</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>433</v>
+        <v>1002</v>
       </c>
       <c r="I18" s="7">
-        <v>496849</v>
+        <v>547905</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>857</v>
+        <v>1665</v>
       </c>
       <c r="N18" s="7">
-        <v>974767</v>
+        <v>1109139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>35525</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>30</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>43734</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>11</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>31</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>79260</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>11</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>12</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>627</v>
+        <v>522</v>
       </c>
       <c r="D20" s="7">
-        <v>591328</v>
+        <v>332640</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>17</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>32</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>19</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
-        <v>655</v>
+        <v>745</v>
       </c>
       <c r="I20" s="7">
-        <v>777931</v>
+        <v>564634</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>33</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="M20" s="7">
-        <v>1282</v>
+        <v>1267</v>
       </c>
       <c r="N20" s="7">
-        <v>1369259</v>
+        <v>897273</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>17</v>
+        <v>310</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>28</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>19</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,153 +5490,153 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>30426</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>11</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>12</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>49273</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>49</v>
+        <v>405</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>79699</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>11</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>12</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>50</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3231</v>
+        <v>416</v>
       </c>
       <c r="D23" s="7">
-        <v>3394350</v>
+        <v>252333</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>17</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>51</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
-        <v>3338</v>
+        <v>793</v>
       </c>
       <c r="I23" s="7">
-        <v>3544542</v>
+        <v>376558</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>17</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>51</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>19</v>
+        <v>414</v>
       </c>
       <c r="M23" s="7">
-        <v>6569</v>
+        <v>1209</v>
       </c>
       <c r="N23" s="7">
-        <v>6938892</v>
+        <v>628891</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>17</v>
+        <v>415</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>416</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,1282 +5645,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3231</v>
+        <v>458</v>
       </c>
       <c r="D24" s="7">
-        <v>3394350</v>
+        <v>282759</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>3338</v>
+        <v>881</v>
       </c>
       <c r="I24" s="7">
-        <v>3544542</v>
+        <v>425831</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>6569</v>
+        <v>1339</v>
       </c>
       <c r="N24" s="7">
-        <v>6938892</v>
+        <v>708590</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>369</v>
+      </c>
+      <c r="D25" s="7">
+        <v>361472</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H25" s="7">
+        <v>612</v>
+      </c>
+      <c r="I25" s="7">
+        <v>443825</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M25" s="7">
+        <v>981</v>
+      </c>
+      <c r="N25" s="7">
+        <v>805297</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3007</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3098345</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4755</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3268455</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7762</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6366800</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3376</v>
+      </c>
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
+        <v>5367</v>
+      </c>
+      <c r="I27" s="7">
+        <v>3712280</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
+        <v>8743</v>
+      </c>
+      <c r="N27" s="7">
+        <v>7172097</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CEC071-C507-436C-BEC0-16AC8D6ED12B}">
-  <dimension ref="A1:Q25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <v>68</v>
-      </c>
-      <c r="D4" s="7">
-        <v>131882</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="7">
-        <v>95</v>
-      </c>
-      <c r="I4" s="7">
-        <v>161807</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" s="7">
-        <v>163</v>
-      </c>
-      <c r="N4" s="7">
-        <v>293689</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="7">
-        <v>104</v>
-      </c>
-      <c r="D5" s="7">
-        <v>245797</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="7">
-        <v>112</v>
-      </c>
-      <c r="I5" s="7">
-        <v>193150</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" s="7">
-        <v>216</v>
-      </c>
-      <c r="N5" s="7">
-        <v>438947</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>172</v>
-      </c>
-      <c r="D6" s="7">
-        <v>377679</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>207</v>
-      </c>
-      <c r="I6" s="7">
-        <v>354957</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M6" s="7">
-        <v>379</v>
-      </c>
-      <c r="N6" s="7">
-        <v>732636</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>124</v>
-      </c>
-      <c r="D7" s="7">
-        <v>176241</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="7">
-        <v>171</v>
-      </c>
-      <c r="I7" s="7">
-        <v>182688</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="7">
-        <v>295</v>
-      </c>
-      <c r="N7" s="7">
-        <v>358929</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7">
-        <v>177</v>
-      </c>
-      <c r="D8" s="7">
-        <v>251995</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="7">
-        <v>290</v>
-      </c>
-      <c r="I8" s="7">
-        <v>316527</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="7">
-        <v>467</v>
-      </c>
-      <c r="N8" s="7">
-        <v>568522</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>301</v>
-      </c>
-      <c r="D9" s="7">
-        <v>428236</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>461</v>
-      </c>
-      <c r="I9" s="7">
-        <v>499215</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M9" s="7">
-        <v>762</v>
-      </c>
-      <c r="N9" s="7">
-        <v>927451</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>208</v>
-      </c>
-      <c r="D10" s="7">
-        <v>215036</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="7">
-        <v>308</v>
-      </c>
-      <c r="I10" s="7">
-        <v>230264</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M10" s="7">
-        <v>516</v>
-      </c>
-      <c r="N10" s="7">
-        <v>445300</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="7">
-        <v>336</v>
-      </c>
-      <c r="D11" s="7">
-        <v>341165</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="7">
-        <v>538</v>
-      </c>
-      <c r="I11" s="7">
-        <v>379245</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M11" s="7">
-        <v>874</v>
-      </c>
-      <c r="N11" s="7">
-        <v>720410</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>544</v>
-      </c>
-      <c r="D12" s="7">
-        <v>556201</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>846</v>
-      </c>
-      <c r="I12" s="7">
-        <v>609509</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="7">
-        <v>1390</v>
-      </c>
-      <c r="N12" s="7">
-        <v>1165710</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>246</v>
-      </c>
-      <c r="D13" s="7">
-        <v>259276</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="7">
-        <v>470</v>
-      </c>
-      <c r="I13" s="7">
-        <v>317121</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M13" s="7">
-        <v>716</v>
-      </c>
-      <c r="N13" s="7">
-        <v>576398</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
-        <v>419</v>
-      </c>
-      <c r="D14" s="7">
-        <v>464714</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="7">
-        <v>670</v>
-      </c>
-      <c r="I14" s="7">
-        <v>429420</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1089</v>
-      </c>
-      <c r="N14" s="7">
-        <v>894133</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>665</v>
-      </c>
-      <c r="D15" s="7">
-        <v>723990</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>1140</v>
-      </c>
-      <c r="I15" s="7">
-        <v>746541</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" s="7">
-        <v>1805</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1470531</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>255</v>
-      </c>
-      <c r="D16" s="7">
-        <v>229998</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H16" s="7">
-        <v>394</v>
-      </c>
-      <c r="I16" s="7">
-        <v>250533</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M16" s="7">
-        <v>649</v>
-      </c>
-      <c r="N16" s="7">
-        <v>480531</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="7">
-        <v>407</v>
-      </c>
-      <c r="D17" s="7">
-        <v>369082</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H17" s="7">
-        <v>607</v>
-      </c>
-      <c r="I17" s="7">
-        <v>345859</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1014</v>
-      </c>
-      <c r="N17" s="7">
-        <v>714941</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>662</v>
-      </c>
-      <c r="D18" s="7">
-        <v>599080</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1001</v>
-      </c>
-      <c r="I18" s="7">
-        <v>596392</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1663</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1195472</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>420</v>
-      </c>
-      <c r="D19" s="7">
-        <v>291976</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H19" s="7">
-        <v>630</v>
-      </c>
-      <c r="I19" s="7">
-        <v>366685</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1050</v>
-      </c>
-      <c r="N19" s="7">
-        <v>658661</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>608</v>
-      </c>
-      <c r="D20" s="7">
-        <v>405778</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1078</v>
-      </c>
-      <c r="I20" s="7">
-        <v>659952</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1686</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1065731</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1028</v>
-      </c>
-      <c r="D21" s="7">
-        <v>697754</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1708</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1026637</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2736</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1724392</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1321</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1304410</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="7">
-        <v>2068</v>
-      </c>
-      <c r="I22" s="7">
-        <v>1509097</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M22" s="7">
-        <v>3389</v>
-      </c>
-      <c r="N22" s="7">
-        <v>2813507</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2051</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2078530</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H23" s="7">
-        <v>3295</v>
-      </c>
-      <c r="I23" s="7">
-        <v>2324154</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M23" s="7">
-        <v>5346</v>
-      </c>
-      <c r="N23" s="7">
-        <v>4402684</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="7">
-        <v>3372</v>
-      </c>
-      <c r="D24" s="7">
-        <v>3382940</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
-        <v>5363</v>
-      </c>
-      <c r="I24" s="7">
-        <v>3833251</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N24" s="7">
-        <v>7216191</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
